--- a/Tests/Validation/Canola/GenomicsPhenology.xlsx
+++ b/Tests/Validation/Canola/GenomicsPhenology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2282F06-EB8F-4B1C-9B27-60294EDE6DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328409FA-F3DE-4C05-88F6-DA60F94A7387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{2EF320CE-7ABE-42F3-AF68-7A3FE40785D1}"/>
+    <workbookView xWindow="670" yWindow="1140" windowWidth="18530" windowHeight="8810" activeTab="1" xr2:uid="{2EF320CE-7ABE-42F3-AF68-7A3FE40785D1}"/>
   </bookViews>
   <sheets>
     <sheet name="OBSPhenology" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="144">
   <si>
     <t>SimulationName</t>
   </si>
@@ -469,6 +469,9 @@
   <si>
     <t>Canola.Leaf.TrueLeafNumber</t>
   </si>
+  <si>
+    <t>TOS_index</t>
+  </si>
 </sst>
 </file>
 
@@ -524,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -564,7 +567,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -670,7 +673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -812,7 +815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,24 +829,24 @@
       <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.29296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.41015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -931,7 +934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -972,7 +975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -5212,17 +5215,17 @@
   <dimension ref="A1:M602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5263,7 +5266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -7847,7 +7850,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -8493,7 +8496,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -8531,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -9367,7 +9370,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -9633,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -9785,7 +9788,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -10317,7 +10320,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>46</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>46</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>46</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>46</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -10621,7 +10624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>46</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>118</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>118</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>119</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>119</v>
       </c>
@@ -11077,7 +11080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -11115,7 +11118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -11191,7 +11194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>131</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>131</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>131</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>131</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>131</v>
       </c>
@@ -11381,7 +11384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>131</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>131</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>132</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>132</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>132</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>132</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>48</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -11913,7 +11916,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -12103,7 +12106,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -12217,7 +12220,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -12293,7 +12296,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -12331,7 +12334,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -12369,7 +12372,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>46</v>
       </c>
@@ -12521,7 +12524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>46</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -12597,7 +12600,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>50</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>50</v>
       </c>
@@ -12711,7 +12714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>50</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>50</v>
       </c>
@@ -12787,7 +12790,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>50</v>
       </c>
@@ -12825,7 +12828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>50</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>50</v>
       </c>
@@ -12901,7 +12904,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -13167,7 +13170,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>52</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -13243,7 +13246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>52</v>
       </c>
@@ -13281,7 +13284,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>52</v>
       </c>
@@ -13319,7 +13322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>52</v>
       </c>
@@ -13357,7 +13360,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>52</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -13433,7 +13436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>54</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>54</v>
       </c>
@@ -13509,7 +13512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>54</v>
       </c>
@@ -13547,7 +13550,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>54</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>54</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>54</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>54</v>
       </c>
@@ -13699,7 +13702,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>55</v>
       </c>
@@ -13737,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -13775,7 +13778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -13813,7 +13816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -13927,7 +13930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>56</v>
       </c>
@@ -14003,7 +14006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>56</v>
       </c>
@@ -14041,7 +14044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>56</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>56</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>56</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>56</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>57</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -14269,7 +14272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>57</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>57</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>57</v>
       </c>
@@ -14383,7 +14386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>57</v>
       </c>
@@ -14421,7 +14424,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>57</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>59</v>
       </c>
@@ -14497,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -14649,7 +14652,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>59</v>
       </c>
@@ -14687,7 +14690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -14725,7 +14728,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -14763,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -14839,7 +14842,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -14915,7 +14918,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>60</v>
       </c>
@@ -14953,7 +14956,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>60</v>
       </c>
@@ -14991,7 +14994,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>61</v>
       </c>
@@ -15029,7 +15032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>61</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>61</v>
       </c>
@@ -15143,7 +15146,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>61</v>
       </c>
@@ -15181,7 +15184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>61</v>
       </c>
@@ -15219,7 +15222,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>61</v>
       </c>
@@ -15257,7 +15260,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -15295,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -15333,7 +15336,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>65</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>65</v>
       </c>
@@ -15409,7 +15412,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>65</v>
       </c>
@@ -15447,7 +15450,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>65</v>
       </c>
@@ -15485,7 +15488,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -15523,7 +15526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>67</v>
       </c>
@@ -15561,7 +15564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>67</v>
       </c>
@@ -15637,7 +15640,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -15675,7 +15678,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>67</v>
       </c>
@@ -15713,7 +15716,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>67</v>
       </c>
@@ -15751,7 +15754,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>67</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>120</v>
       </c>
@@ -15827,7 +15830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>120</v>
       </c>
@@ -15865,7 +15868,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>121</v>
       </c>
@@ -15903,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>121</v>
       </c>
@@ -15941,7 +15944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>121</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>121</v>
       </c>
@@ -16017,7 +16020,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>122</v>
       </c>
@@ -16055,7 +16058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>122</v>
       </c>
@@ -16093,7 +16096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>122</v>
       </c>
@@ -16131,7 +16134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>122</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>122</v>
       </c>
@@ -16207,7 +16210,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>122</v>
       </c>
@@ -16245,7 +16248,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>133</v>
       </c>
@@ -16283,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>133</v>
       </c>
@@ -16321,7 +16324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>133</v>
       </c>
@@ -16359,7 +16362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>133</v>
       </c>
@@ -16397,7 +16400,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>134</v>
       </c>
@@ -16435,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>134</v>
       </c>
@@ -16473,7 +16476,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>134</v>
       </c>
@@ -16511,7 +16514,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>134</v>
       </c>
@@ -16549,7 +16552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>134</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>135</v>
       </c>
@@ -16625,7 +16628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>135</v>
       </c>
@@ -16663,7 +16666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>135</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>135</v>
       </c>
@@ -16739,7 +16742,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>135</v>
       </c>
@@ -16777,7 +16780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>135</v>
       </c>
@@ -16815,7 +16818,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>135</v>
       </c>
@@ -16853,7 +16856,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>70</v>
       </c>
@@ -16891,7 +16894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>70</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>70</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>71</v>
       </c>
@@ -17005,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>71</v>
       </c>
@@ -17043,7 +17046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>71</v>
       </c>
@@ -17081,7 +17084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>71</v>
       </c>
@@ -17119,7 +17122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -17157,7 +17160,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>71</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>72</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>62</v>
       </c>
@@ -17271,7 +17274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>62</v>
       </c>
@@ -17309,7 +17312,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>62</v>
       </c>
@@ -17347,7 +17350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>65</v>
       </c>
@@ -17423,7 +17426,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>65</v>
       </c>
@@ -17461,7 +17464,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>65</v>
       </c>
@@ -17499,7 +17502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>65</v>
       </c>
@@ -17537,7 +17540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>67</v>
       </c>
@@ -17575,7 +17578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>67</v>
       </c>
@@ -17613,7 +17616,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>67</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>67</v>
       </c>
@@ -17689,7 +17692,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>73</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>73</v>
       </c>
@@ -17765,7 +17768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>73</v>
       </c>
@@ -17803,7 +17806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>73</v>
       </c>
@@ -17841,7 +17844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>73</v>
       </c>
@@ -17879,7 +17882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>73</v>
       </c>
@@ -17917,7 +17920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>73</v>
       </c>
@@ -17955,7 +17958,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>75</v>
       </c>
@@ -17993,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>75</v>
       </c>
@@ -18031,7 +18034,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>75</v>
       </c>
@@ -18069,7 +18072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>75</v>
       </c>
@@ -18107,7 +18110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>76</v>
       </c>
@@ -18145,7 +18148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>76</v>
       </c>
@@ -18183,7 +18186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>76</v>
       </c>
@@ -18221,7 +18224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>76</v>
       </c>
@@ -18259,7 +18262,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>76</v>
       </c>
@@ -18297,7 +18300,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>76</v>
       </c>
@@ -18335,7 +18338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>76</v>
       </c>
@@ -18373,7 +18376,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>77</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>77</v>
       </c>
@@ -18449,7 +18452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>77</v>
       </c>
@@ -18487,7 +18490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>77</v>
       </c>
@@ -18525,7 +18528,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>77</v>
       </c>
@@ -18563,7 +18566,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>77</v>
       </c>
@@ -18601,7 +18604,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>77</v>
       </c>
@@ -18639,7 +18642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>78</v>
       </c>
@@ -18677,7 +18680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>78</v>
       </c>
@@ -18715,7 +18718,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>78</v>
       </c>
@@ -18753,7 +18756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>79</v>
       </c>
@@ -18791,7 +18794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>79</v>
       </c>
@@ -18829,7 +18832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>79</v>
       </c>
@@ -18867,7 +18870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>79</v>
       </c>
@@ -18905,7 +18908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>79</v>
       </c>
@@ -18943,7 +18946,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>79</v>
       </c>
@@ -18981,7 +18984,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>80</v>
       </c>
@@ -19019,7 +19022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>80</v>
       </c>
@@ -19057,7 +19060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>80</v>
       </c>
@@ -19095,7 +19098,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>80</v>
       </c>
@@ -19133,7 +19136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>80</v>
       </c>
@@ -19171,7 +19174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>80</v>
       </c>
@@ -19209,7 +19212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>80</v>
       </c>
@@ -19247,7 +19250,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>81</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>81</v>
       </c>
@@ -19323,7 +19326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>81</v>
       </c>
@@ -19361,7 +19364,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>81</v>
       </c>
@@ -19399,7 +19402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>83</v>
       </c>
@@ -19437,7 +19440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>83</v>
       </c>
@@ -19475,7 +19478,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>83</v>
       </c>
@@ -19513,7 +19516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>83</v>
       </c>
@@ -19551,7 +19554,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>83</v>
       </c>
@@ -19589,7 +19592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>123</v>
       </c>
@@ -19627,7 +19630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>123</v>
       </c>
@@ -19665,7 +19668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>123</v>
       </c>
@@ -19703,7 +19706,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>124</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>124</v>
       </c>
@@ -19779,7 +19782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>124</v>
       </c>
@@ -19817,7 +19820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>124</v>
       </c>
@@ -19855,7 +19858,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>124</v>
       </c>
@@ -19893,7 +19896,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>124</v>
       </c>
@@ -19931,7 +19934,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>136</v>
       </c>
@@ -19969,7 +19972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>136</v>
       </c>
@@ -20007,7 +20010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>136</v>
       </c>
@@ -20045,7 +20048,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>136</v>
       </c>
@@ -20083,7 +20086,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>137</v>
       </c>
@@ -20121,7 +20124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>137</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>137</v>
       </c>
@@ -20197,7 +20200,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>137</v>
       </c>
@@ -20235,7 +20238,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>137</v>
       </c>
@@ -20273,7 +20276,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>85</v>
       </c>
@@ -20311,7 +20314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>85</v>
       </c>
@@ -20349,7 +20352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>85</v>
       </c>
@@ -20387,7 +20390,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>85</v>
       </c>
@@ -20425,7 +20428,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>86</v>
       </c>
@@ -20463,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>86</v>
       </c>
@@ -20501,7 +20504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>86</v>
       </c>
@@ -20539,7 +20542,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>86</v>
       </c>
@@ -20577,7 +20580,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>86</v>
       </c>
@@ -20615,7 +20618,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>81</v>
       </c>
@@ -20653,7 +20656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>81</v>
       </c>
@@ -20691,7 +20694,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>81</v>
       </c>
@@ -20729,7 +20732,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>81</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>83</v>
       </c>
@@ -20805,7 +20808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>83</v>
       </c>
@@ -20843,7 +20846,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>83</v>
       </c>
@@ -20881,7 +20884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>83</v>
       </c>
@@ -20919,7 +20922,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>83</v>
       </c>
@@ -20957,7 +20960,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>83</v>
       </c>
@@ -20995,7 +20998,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>87</v>
       </c>
@@ -21033,7 +21036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>87</v>
       </c>
@@ -21071,7 +21074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>87</v>
       </c>
@@ -21109,7 +21112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>87</v>
       </c>
@@ -21147,7 +21150,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>88</v>
       </c>
@@ -21185,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>88</v>
       </c>
@@ -21223,7 +21226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>88</v>
       </c>
@@ -21261,7 +21264,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>88</v>
       </c>
@@ -21299,7 +21302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>88</v>
       </c>
@@ -21337,7 +21340,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>88</v>
       </c>
@@ -21375,7 +21378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>89</v>
       </c>
@@ -21413,7 +21416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>89</v>
       </c>
@@ -21451,7 +21454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>89</v>
       </c>
@@ -21489,7 +21492,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>89</v>
       </c>
@@ -21527,7 +21530,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>89</v>
       </c>
@@ -21565,7 +21568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>90</v>
       </c>
@@ -21603,7 +21606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>90</v>
       </c>
@@ -21641,7 +21644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>90</v>
       </c>
@@ -21679,7 +21682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>90</v>
       </c>
@@ -21717,7 +21720,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>90</v>
       </c>
@@ -21755,7 +21758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>90</v>
       </c>
@@ -21793,7 +21796,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>91</v>
       </c>
@@ -21831,7 +21834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>91</v>
       </c>
@@ -21869,7 +21872,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>91</v>
       </c>
@@ -21907,7 +21910,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>91</v>
       </c>
@@ -21945,7 +21948,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>92</v>
       </c>
@@ -21983,7 +21986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>92</v>
       </c>
@@ -22021,7 +22024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>92</v>
       </c>
@@ -22059,7 +22062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>92</v>
       </c>
@@ -22097,7 +22100,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>92</v>
       </c>
@@ -22135,7 +22138,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>92</v>
       </c>
@@ -22173,7 +22176,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>93</v>
       </c>
@@ -22211,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>93</v>
       </c>
@@ -22249,7 +22252,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>93</v>
       </c>
@@ -22287,7 +22290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>93</v>
       </c>
@@ -22325,7 +22328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>94</v>
       </c>
@@ -22363,7 +22366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>94</v>
       </c>
@@ -22401,7 +22404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>94</v>
       </c>
@@ -22439,7 +22442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>94</v>
       </c>
@@ -22477,7 +22480,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>94</v>
       </c>
@@ -22515,7 +22518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>94</v>
       </c>
@@ -22553,7 +22556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>95</v>
       </c>
@@ -22591,7 +22594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>95</v>
       </c>
@@ -22629,7 +22632,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>95</v>
       </c>
@@ -22667,7 +22670,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>95</v>
       </c>
@@ -22705,7 +22708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>96</v>
       </c>
@@ -22743,7 +22746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>96</v>
       </c>
@@ -22781,7 +22784,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>96</v>
       </c>
@@ -22819,7 +22822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>96</v>
       </c>
@@ -22857,7 +22860,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>96</v>
       </c>
@@ -22895,7 +22898,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>96</v>
       </c>
@@ -22933,7 +22936,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>97</v>
       </c>
@@ -22971,7 +22974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>97</v>
       </c>
@@ -23009,7 +23012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>97</v>
       </c>
@@ -23047,7 +23050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>97</v>
       </c>
@@ -23085,7 +23088,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>97</v>
       </c>
@@ -23123,7 +23126,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>97</v>
       </c>
@@ -23161,7 +23164,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>97</v>
       </c>
@@ -23199,7 +23202,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>99</v>
       </c>
@@ -23237,7 +23240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>99</v>
       </c>
@@ -23275,7 +23278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>99</v>
       </c>
@@ -23313,7 +23316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>99</v>
       </c>
@@ -23351,7 +23354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>99</v>
       </c>
@@ -23389,7 +23392,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>99</v>
       </c>
@@ -23427,7 +23430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>99</v>
       </c>
@@ -23465,7 +23468,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>125</v>
       </c>
@@ -23503,7 +23506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>125</v>
       </c>
@@ -23541,7 +23544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>125</v>
       </c>
@@ -23579,7 +23582,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>125</v>
       </c>
@@ -23617,7 +23620,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>125</v>
       </c>
@@ -23655,7 +23658,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>125</v>
       </c>
@@ -23693,7 +23696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>125</v>
       </c>
@@ -23731,7 +23734,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>126</v>
       </c>
@@ -23769,7 +23772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>126</v>
       </c>
@@ -23807,7 +23810,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>126</v>
       </c>
@@ -23845,7 +23848,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>126</v>
       </c>
@@ -23883,7 +23886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>126</v>
       </c>
@@ -23921,7 +23924,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>126</v>
       </c>
@@ -23959,7 +23962,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>138</v>
       </c>
@@ -23997,7 +24000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>138</v>
       </c>
@@ -24035,7 +24038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>138</v>
       </c>
@@ -24073,7 +24076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>138</v>
       </c>
@@ -24111,7 +24114,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>138</v>
       </c>
@@ -24149,7 +24152,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>138</v>
       </c>
@@ -24187,7 +24190,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>138</v>
       </c>
@@ -24225,7 +24228,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>139</v>
       </c>
@@ -24263,7 +24266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>139</v>
       </c>
@@ -24301,7 +24304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>139</v>
       </c>
@@ -24339,7 +24342,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>139</v>
       </c>
@@ -24377,7 +24380,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>139</v>
       </c>
@@ -24415,7 +24418,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>139</v>
       </c>
@@ -24453,7 +24456,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>139</v>
       </c>
@@ -24491,7 +24494,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>100</v>
       </c>
@@ -24529,7 +24532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>100</v>
       </c>
@@ -24567,7 +24570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>100</v>
       </c>
@@ -24605,7 +24608,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>100</v>
       </c>
@@ -24643,7 +24646,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>100</v>
       </c>
@@ -24681,7 +24684,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>100</v>
       </c>
@@ -24719,7 +24722,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>100</v>
       </c>
@@ -24757,7 +24760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>101</v>
       </c>
@@ -24795,7 +24798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>101</v>
       </c>
@@ -24833,7 +24836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>101</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>101</v>
       </c>
@@ -24909,7 +24912,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>101</v>
       </c>
@@ -24947,7 +24950,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>101</v>
       </c>
@@ -24985,7 +24988,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>101</v>
       </c>
@@ -25023,7 +25026,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>97</v>
       </c>
@@ -25061,7 +25064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>97</v>
       </c>
@@ -25099,7 +25102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>97</v>
       </c>
@@ -25137,7 +25140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>97</v>
       </c>
@@ -25175,7 +25178,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>97</v>
       </c>
@@ -25213,7 +25216,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>97</v>
       </c>
@@ -25251,7 +25254,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>97</v>
       </c>
@@ -25289,7 +25292,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>99</v>
       </c>
@@ -25327,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>99</v>
       </c>
@@ -25365,7 +25368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>99</v>
       </c>
@@ -25403,7 +25406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>99</v>
       </c>
@@ -25441,7 +25444,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>99</v>
       </c>
@@ -25479,7 +25482,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>99</v>
       </c>
@@ -25517,7 +25520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>102</v>
       </c>
@@ -25555,7 +25558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>102</v>
       </c>
@@ -25593,7 +25596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>102</v>
       </c>
@@ -25631,7 +25634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>102</v>
       </c>
@@ -25669,7 +25672,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>102</v>
       </c>
@@ -25707,7 +25710,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>102</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>103</v>
       </c>
@@ -25783,7 +25786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>103</v>
       </c>
@@ -25821,7 +25824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>103</v>
       </c>
@@ -25859,7 +25862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>103</v>
       </c>
@@ -25897,7 +25900,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>103</v>
       </c>
@@ -25935,7 +25938,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>103</v>
       </c>
@@ -25973,7 +25976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>103</v>
       </c>
@@ -26011,7 +26014,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>104</v>
       </c>
@@ -26049,7 +26052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>104</v>
       </c>
@@ -26087,7 +26090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>104</v>
       </c>
@@ -26125,7 +26128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>104</v>
       </c>
@@ -26163,7 +26166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>104</v>
       </c>
@@ -26201,7 +26204,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>104</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>104</v>
       </c>
@@ -26277,7 +26280,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>105</v>
       </c>
@@ -26315,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>105</v>
       </c>
@@ -26353,7 +26356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>105</v>
       </c>
@@ -26391,7 +26394,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>105</v>
       </c>
@@ -26429,7 +26432,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>105</v>
       </c>
@@ -26467,7 +26470,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>105</v>
       </c>
@@ -26505,7 +26508,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>105</v>
       </c>
@@ -26543,7 +26546,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>106</v>
       </c>
@@ -26581,7 +26584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>106</v>
       </c>
@@ -26619,7 +26622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>106</v>
       </c>
@@ -26657,7 +26660,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>106</v>
       </c>
@@ -26695,7 +26698,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>106</v>
       </c>
@@ -26733,7 +26736,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>106</v>
       </c>
@@ -26771,7 +26774,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>106</v>
       </c>
@@ -26809,7 +26812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>107</v>
       </c>
@@ -26847,7 +26850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>107</v>
       </c>
@@ -26885,7 +26888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>107</v>
       </c>
@@ -26923,7 +26926,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>107</v>
       </c>
@@ -26961,7 +26964,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>107</v>
       </c>
@@ -26999,7 +27002,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>107</v>
       </c>
@@ -27037,7 +27040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>107</v>
       </c>
@@ -27075,7 +27078,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>108</v>
       </c>
@@ -27113,7 +27116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>108</v>
       </c>
@@ -27151,7 +27154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>108</v>
       </c>
@@ -27189,7 +27192,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>108</v>
       </c>
@@ -27227,7 +27230,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>108</v>
       </c>
@@ -27265,7 +27268,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>108</v>
       </c>
@@ -27303,7 +27306,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>108</v>
       </c>
@@ -27341,7 +27344,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>109</v>
       </c>
@@ -27379,7 +27382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>109</v>
       </c>
@@ -27417,7 +27420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>109</v>
       </c>
@@ -27455,7 +27458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>109</v>
       </c>
@@ -27493,7 +27496,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>109</v>
       </c>
@@ -27531,7 +27534,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>109</v>
       </c>
@@ -27569,7 +27572,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>109</v>
       </c>
@@ -27607,7 +27610,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>110</v>
       </c>
@@ -27645,7 +27648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>110</v>
       </c>
@@ -27683,7 +27686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>110</v>
       </c>
@@ -27721,7 +27724,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>110</v>
       </c>
@@ -27759,7 +27762,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>110</v>
       </c>
@@ -27797,7 +27800,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>110</v>
       </c>
@@ -27835,7 +27838,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>111</v>
       </c>
@@ -27873,7 +27876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>111</v>
       </c>
@@ -27911,7 +27914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>111</v>
       </c>
@@ -27949,7 +27952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>111</v>
       </c>
@@ -27987,7 +27990,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>111</v>
       </c>
@@ -28025,7 +28028,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>111</v>
       </c>
@@ -28063,7 +28066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>111</v>
       </c>
